--- a/WebAPI/eFMS.API.SystemWeb/CatalogueManagement/eFMS.API.Catalogue/Resources/Files/PartnerImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/CatalogueManagement/eFMS.API.Catalogue/Resources/Files/PartnerImportTemplate.xlsx
@@ -1,20 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\efms\src\WebAPI\eFMS.API.SystemWeb\CatalogueManagement\eFMS.API.Catalogue\Resources\Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13990" windowHeight="7240"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alex Phuong</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alex Phuong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+  <si>
+    <t>Taxcode</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Name Abr</t>
+  </si>
   <si>
     <t>Name EN</t>
   </si>
@@ -22,26 +75,65 @@
     <t>Name Local</t>
   </si>
   <si>
-    <t>Name Abreviation</t>
-  </si>
-  <si>
-    <t>Tax Code</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>Customer</t>
+    <t>Contact Person</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> City </t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Billing Address Local</t>
+  </si>
+  <si>
+    <t>Billing  Address EN</t>
+  </si>
+  <si>
+    <t>Shipping  Address EN</t>
+  </si>
+  <si>
+    <t>Shipping Address Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email </t>
+  </si>
+  <si>
+    <t>Saleman</t>
+  </si>
+  <si>
+    <t>Localtion (Workplace)</t>
+  </si>
+  <si>
+    <t>Partners Bank Account</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>Swift Code</t>
+  </si>
+  <si>
+    <t>Bank Address</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>ABC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,10 +142,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <name val="Century Gothic"/>
-      <family val="4"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,16 +180,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -91,14 +197,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,44 +243,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -194,12 +310,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -238,253 +354,338 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="20" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" customWidth="1"/>
+    <col min="9" max="9" width="20.54296875" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" customWidth="1"/>
+    <col min="13" max="13" width="17.90625" customWidth="1"/>
+    <col min="14" max="14" width="17.08984375" customWidth="1"/>
+    <col min="15" max="15" width="15.90625" customWidth="1"/>
+    <col min="20" max="20" width="13.7265625" customWidth="1"/>
+    <col min="21" max="21" width="25.36328125" customWidth="1"/>
+    <col min="22" max="22" width="15.26953125" customWidth="1"/>
+    <col min="23" max="23" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WebAPI/eFMS.API.SystemWeb/CatalogueManagement/eFMS.API.Catalogue/Resources/Files/PartnerImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/CatalogueManagement/eFMS.API.Catalogue/Resources/Files/PartnerImportTemplate.xlsx
@@ -60,48 +60,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
-    <t>Taxcode</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Name Abr</t>
-  </si>
-  <si>
-    <t>Name EN</t>
-  </si>
-  <si>
-    <t>Name Local</t>
-  </si>
-  <si>
     <t>Contact Person</t>
   </si>
   <si>
     <t>Phone</t>
   </si>
   <si>
-    <t xml:space="preserve"> City </t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Zipcode</t>
   </si>
   <si>
-    <t>Billing Address Local</t>
-  </si>
-  <si>
-    <t>Billing  Address EN</t>
-  </si>
-  <si>
-    <t>Shipping  Address EN</t>
-  </si>
-  <si>
-    <t>Shipping Address Local</t>
-  </si>
-  <si>
     <t xml:space="preserve">Email </t>
   </si>
   <si>
@@ -127,6 +94,39 @@
   </si>
   <si>
     <t>ABC</t>
+  </si>
+  <si>
+    <t>Name Abr(*)</t>
+  </si>
+  <si>
+    <t>Name EN(*)</t>
+  </si>
+  <si>
+    <t>Name Local(*)</t>
+  </si>
+  <si>
+    <t>Taxcode(*)</t>
+  </si>
+  <si>
+    <t>Category(*)</t>
+  </si>
+  <si>
+    <t>Billing  Address EN(*)</t>
+  </si>
+  <si>
+    <t>Billing Address Local(*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> City (*)</t>
+  </si>
+  <si>
+    <t>Country(*)</t>
+  </si>
+  <si>
+    <t>Shipping  Address EN(*)</t>
+  </si>
+  <si>
+    <t>Shipping Address Local(*)</t>
   </si>
 </sst>
 </file>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -525,79 +525,79 @@
   <sheetData>
     <row r="1" spans="1:25" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="M1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="S1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="U1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="V1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
@@ -611,7 +611,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>

--- a/WebAPI/eFMS.API.SystemWeb/CatalogueManagement/eFMS.API.Catalogue/Resources/Files/PartnerImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/CatalogueManagement/eFMS.API.Catalogue/Resources/Files/PartnerImportTemplate.xlsx
@@ -2,17 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\efms\src\WebAPI\eFMS.API.SystemWeb\CatalogueManagement\eFMS.API.Catalogue\Resources\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.phuong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13990" windowHeight="7240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,6 +29,78 @@
     <author>Alex Phuong</author>
   </authors>
   <commentList>
+    <comment ref="Z1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alex Phuong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mã Service Salesman Default</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alex Phuong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nhập thông tin office của saleman default</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alex Phuong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Payment Term Áp đụng</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
@@ -58,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Contact Person</t>
   </si>
@@ -117,23 +189,50 @@
     <t>Billing Address Local(*)</t>
   </si>
   <si>
-    <t xml:space="preserve"> City (*)</t>
-  </si>
-  <si>
-    <t>Country(*)</t>
-  </si>
-  <si>
-    <t>Shipping  Address EN(*)</t>
-  </si>
-  <si>
     <t>Shipping Address Local(*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> City </t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Shipping  Address EN</t>
+  </si>
+  <si>
+    <t>SEF</t>
+  </si>
+  <si>
+    <t>ITL CODE</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Service - Salesman Default</t>
+  </si>
+  <si>
+    <t>Office - Salesman Default</t>
+  </si>
+  <si>
+    <t>Payment Term - Salesman Default</t>
+  </si>
+  <si>
+    <t>Effect Date -Salesman Default</t>
+  </si>
+  <si>
+    <t>thông tin tạo 1 dòng salesman cho salesman default mặc địch active cho dòng salesman đó</t>
+  </si>
+  <si>
+    <t>Bỏ require city và country khi Import</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +259,21 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -215,6 +329,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,35 +612,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" customWidth="1"/>
-    <col min="9" max="9" width="20.54296875" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" customWidth="1"/>
-    <col min="13" max="13" width="17.90625" customWidth="1"/>
-    <col min="14" max="14" width="17.08984375" customWidth="1"/>
-    <col min="15" max="15" width="15.90625" customWidth="1"/>
-    <col min="20" max="20" width="13.7265625" customWidth="1"/>
-    <col min="21" max="21" width="25.36328125" customWidth="1"/>
-    <col min="22" max="22" width="15.26953125" customWidth="1"/>
-    <col min="23" max="23" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="37.5703125" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
+    <col min="21" max="21" width="25.42578125" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.7109375" customWidth="1"/>
+    <col min="27" max="27" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -552,25 +674,25 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>2</v>
@@ -599,8 +721,20 @@
       <c r="Y1" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="Z1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -628,8 +762,20 @@
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
+      <c r="Z2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>43904</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -655,8 +801,12 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -682,6 +832,18 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebAPI/eFMS.API.SystemWeb/CatalogueManagement/eFMS.API.Catalogue/Resources/Files/PartnerImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/CatalogueManagement/eFMS.API.Catalogue/Resources/Files/PartnerImportTemplate.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.phuong\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\efms\src\WebAPI\eFMS.API.SystemWeb\CatalogueManagement\eFMS.API.Catalogue\Resources\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -130,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Contact Person</t>
   </si>
@@ -201,12 +202,6 @@
     <t>Shipping  Address EN</t>
   </si>
   <si>
-    <t>SEF</t>
-  </si>
-  <si>
-    <t>ITL CODE</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -222,16 +217,49 @@
     <t>Effect Date -Salesman Default</t>
   </si>
   <si>
-    <t>thông tin tạo 1 dòng salesman cho salesman default mặc địch active cho dòng salesman đó</t>
-  </si>
-  <si>
-    <t>Bỏ require city và country khi Import</t>
+    <t>Prepaid</t>
+  </si>
+  <si>
+    <t>Collect</t>
+  </si>
+  <si>
+    <t>Custom Logistic</t>
+  </si>
+  <si>
+    <t>Air Import</t>
+  </si>
+  <si>
+    <t>Air Export</t>
+  </si>
+  <si>
+    <t>Sea FCL Export</t>
+  </si>
+  <si>
+    <t>Sea LCL Export</t>
+  </si>
+  <si>
+    <t>Sea FCL Import</t>
+  </si>
+  <si>
+    <t>Sea LCL Import</t>
+  </si>
+  <si>
+    <t>Sea Consol Export</t>
+  </si>
+  <si>
+    <t>Sea Consol Import</t>
+  </si>
+  <si>
+    <t>Inland Trucking</t>
+  </si>
+  <si>
+    <t>sf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,11 +339,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -612,242 +637,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.1796875" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="37.5703125" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" customWidth="1"/>
-    <col min="21" max="21" width="25.42578125" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" customWidth="1"/>
-    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.7109375" customWidth="1"/>
-    <col min="27" max="27" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" customWidth="1"/>
+    <col min="13" max="13" width="37.54296875" customWidth="1"/>
+    <col min="14" max="14" width="28.54296875" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" customWidth="1"/>
+    <col min="16" max="16" width="16.54296875" customWidth="1"/>
+    <col min="20" max="20" width="13.7265625" customWidth="1"/>
+    <col min="21" max="21" width="25.453125" customWidth="1"/>
+    <col min="22" max="22" width="15.26953125" customWidth="1"/>
+    <col min="23" max="23" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.7265625" customWidth="1"/>
+    <col min="27" max="27" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AC1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="10">
+      <c r="AC2" s="9">
         <v>43904</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="O5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>30</v>
-      </c>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="O3" s="10"/>
+      <c r="Z3" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>AB2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet1!$D$2:$D$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WebAPI/eFMS.API.SystemWeb/CatalogueManagement/eFMS.API.Catalogue/Resources/Files/PartnerImportTemplate.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/CatalogueManagement/eFMS.API.Catalogue/Resources/Files/PartnerImportTemplate.xlsx
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Contact Person</t>
   </si>
@@ -253,14 +253,26 @@
     <t>Inland Trucking</t>
   </si>
   <si>
-    <t>sf</t>
+    <t>3123123123 i1</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Bac Giang</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>ITLHCM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,13 +299,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -339,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -354,9 +359,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -648,6 +652,7 @@
     <col min="1" max="1" width="22.54296875" customWidth="1"/>
     <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
@@ -760,27 +765,49 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
+      <c r="S2" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
@@ -791,7 +818,7 @@
         <v>30</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AB2" s="4" t="s">
         <v>23</v>
@@ -799,10 +826,6 @@
       <c r="AC2" s="9">
         <v>43904</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="O3" s="10"/>
-      <c r="Z3" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
